--- a/pred_ohlcv/54_21/2019-10-17 CMT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 CMT ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-121259.8017326894</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-121259.8017326894</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-124056.0320326894</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-134726.6297326894</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-134726.6297326894</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-134726.6297326894</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-134716.6297326894</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-136451.1141326894</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-475155.1401597151</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-475155.1401597151</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-475155.1401597151</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-475155.1401597151</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-487338.8699597151</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-456734.0639597151</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-456724.0639597151</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-483233.9294025722</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-448769.5501025722</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-482779.6382025722</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-482769.6382025722</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-507769.6382025722</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-595128.5586025721</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-566403.244102572</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-426045.214002572</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-426045.214002572</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-426045.214002572</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-420938.450802572</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-555549.302202572</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-555449.302202572</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-556584.011602572</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-514342.112602572</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-805666.2400025721</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-815672.0806025721</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-815282.0806025721</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-815282.0806025721</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-17 CMT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 CMT ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-121259.8017326894</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-124056.0320326894</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-134726.6297326894</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-134726.6297326894</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-134726.6297326894</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-134716.6297326894</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-136451.1141326894</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-475155.1401597151</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-475155.1401597151</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-487338.8699597151</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-456734.0639597151</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-456724.0639597151</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-413213.9294025722</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-483213.9294025722</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-483243.9294025722</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-483233.9294025722</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-448769.5501025722</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-482779.6382025722</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-482769.6382025722</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-507769.6382025722</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-507769.6382025722</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-559146.627502572</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-595128.5586025721</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-566403.244102572</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-426045.214002572</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-426045.214002572</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-426045.214002572</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-420938.450802572</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-420878.450802572</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-420878.450802572</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-420888.450802572</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-420888.450802572</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-420878.450802572</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-420878.450802572</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-555929.768702572</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-555539.302202572</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-555549.302202572</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-555539.302202572</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-555539.302202572</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-555549.302202572</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-519419.342602572</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-602676.693702572</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-805666.2400025721</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-815672.0806025721</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-815282.0806025721</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-815282.0806025721</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
